--- a/cv/data/journal_IF.xlsx
+++ b/cv/data/journal_IF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie Von Holzen\Documents\Github\Kvonholzen.github.io\cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatieVH\Documents\Github\Kvonholzen.github.io\cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB54D70-E512-4220-8934-480C08B31392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3B26C-D72A-4751-A7BA-A71123C43685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1236" windowWidth="11220" windowHeight="8748" xr2:uid="{C2A7A68E-5390-487E-9C30-71D75DCCFE59}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2A7A68E-5390-487E-9C30-71D75DCCFE59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,16 +94,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,8 +131,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +450,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
